--- a/addressbook-web-tests/addressbook-web-tests/groups.xlsx
+++ b/addressbook-web-tests/addressbook-web-tests/groups.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>IHGJ</t>
   </si>
@@ -34,75 +34,6 @@
   </si>
   <si>
     <t>EYMKW</t>
-  </si>
-  <si>
-    <t>XJUIAVTJU</t>
-  </si>
-  <si>
-    <t>AACJIZQOO</t>
-  </si>
-  <si>
-    <t>NLRVIRZVE</t>
-  </si>
-  <si>
-    <t>SYG</t>
-  </si>
-  <si>
-    <t>LRWLM</t>
-  </si>
-  <si>
-    <t>JDFFILFP</t>
-  </si>
-  <si>
-    <t>EJ</t>
-  </si>
-  <si>
-    <t>WXJLRYAJW</t>
-  </si>
-  <si>
-    <t>FLECTNXQC</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>KHNNWM</t>
-  </si>
-  <si>
-    <t>PYZU</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>YZ</t>
-  </si>
-  <si>
-    <t>LDYLXSBGRR</t>
-  </si>
-  <si>
-    <t>OCEWEJY</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>IGMJZ</t>
-  </si>
-  <si>
-    <t>JYQDS</t>
-  </si>
-  <si>
-    <t>TENOMHFUS</t>
-  </si>
-  <si>
-    <t>XXYGUUNI</t>
-  </si>
-  <si>
-    <t>MDR</t>
   </si>
 </sst>
 </file>
@@ -435,9 +366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -461,94 +394,6 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
